--- a/doc/Stored Tasks.xlsx
+++ b/doc/Stored Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Tâche stockée</t>
   </si>
@@ -54,34 +54,16 @@
     <t>SPLIT</t>
   </si>
   <si>
-    <t>'b' OU 'l'</t>
-  </si>
-  <si>
     <t>ADD_PRED</t>
   </si>
   <si>
     <t>Broadcasts</t>
   </si>
   <si>
-    <t>SET_ACTIVE</t>
-  </si>
-  <si>
     <t>ADD_STAGE</t>
   </si>
   <si>
     <t>CS_REQ</t>
-  </si>
-  <si>
-    <t>SET_UPD</t>
-  </si>
-  <si>
-    <t>!= 'u'</t>
-  </si>
-  <si>
-    <t>!='u' OU new_node pas ok</t>
-  </si>
-  <si>
-    <t>!='u'</t>
   </si>
   <si>
     <t>Colonne1</t>
@@ -159,8 +141,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D11" totalsRowShown="0">
-  <autoFilter ref="A1:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:D9" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="Colonne1"/>
     <tableColumn id="2" name="Tâche stockée" dataDxfId="2"/>
@@ -458,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +455,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -523,7 +504,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -531,57 +512,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
